--- a/envo/document/data/list/1.xlsx
+++ b/envo/document/data/list/1.xlsx
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
